--- a/src/main/resources/template/excel/export/DeliverFormListLogistics.xlsx
+++ b/src/main/resources/template/excel/export/DeliverFormListLogistics.xlsx
@@ -35,28 +35,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>H</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2")</t>
+          <t>jx:area(lastCell="I2")</t>
         </r>
       </text>
     </comment>
@@ -69,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="H2")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="I2")</t>
         </r>
       </text>
     </comment>
@@ -78,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>订单号</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -141,6 +120,14 @@
   </si>
   <si>
     <t>${obj.targetBranchCode}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +193,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -258,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -280,6 +259,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,80 +568,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="22" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="21.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="22" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="22" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 E1:F1048576 C1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 F1:G1048576 D1:D1048576"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
